--- a/data/trans_dic/Q25_A_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Q25_A_R3-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.7323721932105506</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.7812130652593547</v>
+        <v>0.7812130652593546</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.8450014675795349</v>
@@ -708,36 +708,36 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5437590071546446</v>
+        <v>0.5444937854309742</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.701817256604274</v>
+        <v>0.7514551255212651</v>
       </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>0.5528682864704614</v>
+        <v>0.6106830991267275</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5909865183589876</v>
+        <v>0.5911153909000978</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4734106310030045</v>
+        <v>0.4691180809988788</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4548712976149645</v>
+        <v>0.4342474679999263</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6644524526359898</v>
+        <v>0.6391612268628375</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.7308119526091238</v>
+        <v>0.731796683197897</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.6574090232950679</v>
+        <v>0.6538236750110525</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5283272351090278</v>
+        <v>0.5044968082475957</v>
       </c>
     </row>
     <row r="6">
@@ -759,22 +759,22 @@
         <v>1</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9524447758117051</v>
+        <v>0.9534232115692165</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8950995526022142</v>
+        <v>0.8941187166171775</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9614516906104981</v>
+        <v>0.9610250903579545</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9512949821724072</v>
+        <v>0.9513090168420066</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9335772661444506</v>
+        <v>0.9323485454208628</v>
       </c>
       <c r="N6" s="5" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>0.5970900990479193</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4308629484085107</v>
+        <v>0.4308629484085106</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.5937674999941392</v>
@@ -825,7 +825,7 @@
         <v>0.5507730997094594</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4445947558321898</v>
+        <v>0.4445947558321899</v>
       </c>
     </row>
     <row r="8">
@@ -836,40 +836,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4506786956660115</v>
+        <v>0.4679247404826125</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.603608783343397</v>
+        <v>0.6023388837677713</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3562664752544931</v>
+        <v>0.3625833779428219</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1937522530664258</v>
+        <v>0.2045694357912529</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4499344331288067</v>
+        <v>0.447967658944951</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5034986567863174</v>
+        <v>0.5004534788877429</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4713908880776098</v>
+        <v>0.4652125347188923</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2499591274981162</v>
+        <v>0.2555082061857586</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4849093295906786</v>
+        <v>0.4962412374035728</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5859083364156689</v>
+        <v>0.5860637440341364</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4498024652160214</v>
+        <v>0.4427334333817093</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3023893906653037</v>
+        <v>0.2824526050294781</v>
       </c>
     </row>
     <row r="9">
@@ -880,40 +880,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7877148380875338</v>
+        <v>0.7941971167416472</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8229427167809935</v>
+        <v>0.8164345566037404</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6271408345943701</v>
+        <v>0.6321231058813129</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7293930427337529</v>
+        <v>0.7415411571358876</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6948321285984451</v>
+        <v>0.686193831064589</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7207096278449762</v>
+        <v>0.7243835411795504</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7122141668742564</v>
+        <v>0.7185723775448372</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6218884156991078</v>
+        <v>0.6109256861422614</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6902839515994543</v>
+        <v>0.6833364111138487</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7418496313946357</v>
+        <v>0.7368209480289117</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6382403820319937</v>
+        <v>0.6340211408776601</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5996353489752145</v>
+        <v>0.5837327619546172</v>
       </c>
     </row>
     <row r="10">
@@ -949,7 +949,7 @@
         <v>0.2919025151224311</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3501970140605549</v>
+        <v>0.350197014060555</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.346418513038609</v>
@@ -972,40 +972,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3350783304918437</v>
+        <v>0.3367129079848499</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3491579223283284</v>
+        <v>0.3448666931574704</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3448799289993844</v>
+        <v>0.3462034966866886</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1824515337238402</v>
+        <v>0.1778218281262887</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1431179169694466</v>
+        <v>0.1466314593013547</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2070215622975036</v>
+        <v>0.2022558456108502</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2112056477713505</v>
+        <v>0.2084621458007286</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2487449657759301</v>
+        <v>0.2443380661037371</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2697477183560989</v>
+        <v>0.2743994168277908</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2939726712354769</v>
+        <v>0.2918371057010621</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2996527590691839</v>
+        <v>0.2932593270472789</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2538285876886299</v>
+        <v>0.2429703325325284</v>
       </c>
     </row>
     <row r="12">
@@ -1016,40 +1016,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.548579144444666</v>
+        <v>0.5537862390774311</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5401275379869156</v>
+        <v>0.5316870732467148</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5702382003661286</v>
+        <v>0.5762329369199138</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4955191767576291</v>
+        <v>0.494863032942767</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3472485795108998</v>
+        <v>0.3549870763799707</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3659499445451999</v>
+        <v>0.3677653318368852</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3987168302843033</v>
+        <v>0.3902480380024138</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4646585915165999</v>
+        <v>0.456525225051103</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4300807494029643</v>
+        <v>0.4319704790700468</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4169548797284428</v>
+        <v>0.4143903891413713</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4448036272694902</v>
+        <v>0.4394456783495556</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4466432876653142</v>
+        <v>0.428230479425009</v>
       </c>
     </row>
     <row r="13">
@@ -1108,40 +1108,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2382811552563033</v>
+        <v>0.2319835451782847</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2272729360866646</v>
+        <v>0.2261807003745419</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1736305391931175</v>
+        <v>0.17333311250141</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1090178543395115</v>
+        <v>0.1088016083532327</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2070018620578071</v>
+        <v>0.2154738380433936</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1587820955897941</v>
+        <v>0.1589587208443293</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1499554696036059</v>
+        <v>0.143970277939211</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1816662564220148</v>
+        <v>0.1838696042702386</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2450643671221569</v>
+        <v>0.2558931226850036</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2208995119054263</v>
+        <v>0.2169134733868957</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1749601877371542</v>
+        <v>0.1849830953853454</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1581792218003105</v>
+        <v>0.1573487556357746</v>
       </c>
     </row>
     <row r="15">
@@ -1152,40 +1152,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4063825963470221</v>
+        <v>0.404920725356371</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3659600641616295</v>
+        <v>0.3718418766592103</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3261102039405125</v>
+        <v>0.3306709810731324</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.257149306508431</v>
+        <v>0.2719995698182843</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4505392767194464</v>
+        <v>0.4459338613634085</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3472819289564053</v>
+        <v>0.3417656255019219</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.326721602203714</v>
+        <v>0.3284264880441966</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3255595551452853</v>
+        <v>0.3236105638147723</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3854162088514345</v>
+        <v>0.3930302411953861</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3422826357009284</v>
+        <v>0.3393457649327064</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3020762683557871</v>
+        <v>0.2956808678710054</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2651802988113077</v>
+        <v>0.2656208629063853</v>
       </c>
     </row>
     <row r="16">
@@ -1244,40 +1244,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09372332064086118</v>
+        <v>0.09016864081798742</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1404980948610881</v>
+        <v>0.1388046178789744</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.13069094500076</v>
+        <v>0.1293345358748593</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09591425567000014</v>
+        <v>0.09441340844551882</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07969783783110097</v>
+        <v>0.06215904249777458</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1233444791373497</v>
+        <v>0.1206717829742671</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1083774679660444</v>
+        <v>0.09827755000268028</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1435671720745776</v>
+        <v>0.146264722341941</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1033189497065704</v>
+        <v>0.1045104549468737</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1491424850226868</v>
+        <v>0.1557239960242119</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1341864187017809</v>
+        <v>0.1333602340287631</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1269736355009419</v>
+        <v>0.1243806642990217</v>
       </c>
     </row>
     <row r="18">
@@ -1288,40 +1288,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2175047952686862</v>
+        <v>0.2143948649357496</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2783339344462618</v>
+        <v>0.275804526955807</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2546376208284614</v>
+        <v>0.2577431947372688</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2032856392845796</v>
+        <v>0.2011658555792342</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.555198122822197</v>
+        <v>0.5112356580018369</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3602126619908059</v>
+        <v>0.3682430083645332</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2980064630687528</v>
+        <v>0.3080431959001108</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2734342275397855</v>
+        <v>0.2759245307748761</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2287821345339822</v>
+        <v>0.2252660601053707</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2735652320509005</v>
+        <v>0.2699968013975994</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2397000192760667</v>
+        <v>0.2417077261837716</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2088363832911636</v>
+        <v>0.2097620917234151</v>
       </c>
     </row>
     <row r="19">
@@ -1380,40 +1380,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.08057093756258045</v>
+        <v>0.08030757177774756</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06803103303559695</v>
+        <v>0.06463977099953379</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0926021175012028</v>
+        <v>0.0940806727984172</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0868978874944733</v>
+        <v>0.08491432477099377</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06309988676252373</v>
+        <v>0.06586242067742701</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1032707580179078</v>
+        <v>0.1105046091231175</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.06860637584788619</v>
+        <v>0.06829875219257198</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0673114316842463</v>
+        <v>0.06552864489266953</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.08798133770816874</v>
+        <v>0.08762737753498519</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.08310925647879354</v>
+        <v>0.08203706069921866</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1083329737439911</v>
+        <v>0.1082050837966527</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.091408469473872</v>
+        <v>0.09034195585437001</v>
       </c>
     </row>
     <row r="21">
@@ -1424,40 +1424,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2064500851166013</v>
+        <v>0.2062603796560472</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1615005196180079</v>
+        <v>0.1590941048870315</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.215884508894584</v>
+        <v>0.2137928548782541</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1732318400914358</v>
+        <v>0.1745792826273975</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5372865173089372</v>
+        <v>0.5711219877578028</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8071481318441334</v>
+        <v>0.7857655581923256</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.374893964220525</v>
+        <v>0.3685167316945066</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2174432496707273</v>
+        <v>0.2174235821489525</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2098857410259149</v>
+        <v>0.2085857347224284</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1909496731179979</v>
+        <v>0.1848277534164561</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2139659495837871</v>
+        <v>0.2194406582251902</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.166213613528023</v>
+        <v>0.1700659440571123</v>
       </c>
     </row>
     <row r="22">
@@ -1505,7 +1505,7 @@
         <v>0.04058742482641951</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.03113227188091945</v>
+        <v>0.03113227188091946</v>
       </c>
     </row>
     <row r="23">
@@ -1516,16 +1516,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.007481491330231826</v>
+        <v>0.007666707691421782</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02050467649975701</v>
+        <v>0.02130356241455798</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0145764602373341</v>
+        <v>0.01457704956078849</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01373880873370185</v>
+        <v>0.012838139965909</v>
       </c>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="n">
@@ -1534,16 +1534,16 @@
       <c r="I23" s="5" t="inlineStr"/>
       <c r="J23" s="5" t="inlineStr"/>
       <c r="K23" s="5" t="n">
-        <v>0.007163286720124057</v>
+        <v>0.006999444294700792</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02421782884227919</v>
+        <v>0.02755741419526272</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01494933893440151</v>
+        <v>0.01416532217982935</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.01346091565443263</v>
+        <v>0.01139692023603987</v>
       </c>
     </row>
     <row r="24">
@@ -1554,34 +1554,34 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06789866719214364</v>
+        <v>0.07113327762102431</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09495051409527366</v>
+        <v>0.09804724104923633</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.08813218061777919</v>
+        <v>0.09224353691747247</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.07820554594393143</v>
+        <v>0.07334695758095344</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="n">
-        <v>0.6302354493367907</v>
+        <v>0.6526160430138184</v>
       </c>
       <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="inlineStr"/>
       <c r="K24" s="5" t="n">
-        <v>0.06745449410472269</v>
+        <v>0.06535535703411206</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1016507548707057</v>
+        <v>0.1052641289889577</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.08540248934642947</v>
+        <v>0.08796874965497357</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.0672061098042759</v>
+        <v>0.06354445757809393</v>
       </c>
     </row>
     <row r="25">
@@ -1640,40 +1640,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2031807691993537</v>
+        <v>0.203486756068087</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.233622780782563</v>
+        <v>0.2343413397403316</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2068965175451543</v>
+        <v>0.2031136499220758</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1275767917852418</v>
+        <v>0.1265673933661295</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3210724705095344</v>
+        <v>0.3119388067854633</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3150182362868461</v>
+        <v>0.3198234149856945</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2669612256824668</v>
+        <v>0.2695284961120149</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2271923559926061</v>
+        <v>0.2282558521993859</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2485066853999754</v>
+        <v>0.2451247979017531</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2718429117237569</v>
+        <v>0.272045604986772</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2331613379109153</v>
+        <v>0.2372730898037181</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1710660767008779</v>
+        <v>0.1734642842021262</v>
       </c>
     </row>
     <row r="27">
@@ -1684,40 +1684,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2751687751551213</v>
+        <v>0.2743395467585525</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2976004358509413</v>
+        <v>0.2984479517284522</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2706394286929741</v>
+        <v>0.2670454791690278</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1875025410583235</v>
+        <v>0.1865264721875296</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.4430311212792322</v>
+        <v>0.4418790576799023</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.415923132293976</v>
+        <v>0.4206206050259827</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3609156501673641</v>
+        <v>0.3656569510912325</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3122210453938706</v>
+        <v>0.3171903113974662</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3114687061958223</v>
+        <v>0.3102532536489335</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3253630244229864</v>
+        <v>0.3261322665129968</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2885631249987764</v>
+        <v>0.2925783854420679</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2240380353180568</v>
+        <v>0.2241318849962466</v>
       </c>
     </row>
     <row r="28">
@@ -1991,36 +1991,36 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6138</v>
+        <v>6146</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11780</v>
+        <v>12613</v>
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>7140</v>
+        <v>7887</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11364</v>
+        <v>11367</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8758</v>
+        <v>8679</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8456</v>
+        <v>8072</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>16082</v>
+        <v>15470</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>26319</v>
+        <v>26355</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>19000</v>
+        <v>18897</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>13237</v>
+        <v>12640</v>
       </c>
     </row>
     <row r="7">
@@ -2042,22 +2042,22 @@
         <v>12915</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>18315</v>
+        <v>18333</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>16559</v>
+        <v>16541</v>
       </c>
       <c r="J7" s="6" t="n">
         <v>18589</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>23270</v>
+        <v>23260</v>
       </c>
       <c r="L7" s="6" t="n">
         <v>34260</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>26982</v>
+        <v>26947</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>25054</v>
@@ -2163,40 +2163,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15976</v>
+        <v>16587</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>44482</v>
+        <v>44388</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>18806</v>
+        <v>19139</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4746</v>
+        <v>5011</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>32044</v>
+        <v>31904</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>42467</v>
+        <v>42210</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>28641</v>
+        <v>28266</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>8516</v>
+        <v>8705</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>51724</v>
+        <v>52933</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>92595</v>
+        <v>92620</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>51073</v>
+        <v>50271</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>17709</v>
+        <v>16542</v>
       </c>
     </row>
     <row r="11">
@@ -2207,40 +2207,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>27923</v>
+        <v>28153</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>60645</v>
+        <v>60166</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>33104</v>
+        <v>33367</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>17868</v>
+        <v>18166</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>49485</v>
+        <v>48870</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>60788</v>
+        <v>61097</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>43273</v>
+        <v>43660</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>21187</v>
+        <v>20814</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>73631</v>
+        <v>72889</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>117240</v>
+        <v>116445</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>72470</v>
+        <v>71991</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>35118</v>
+        <v>34186</v>
       </c>
     </row>
     <row r="12">
@@ -2343,40 +2343,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>28224</v>
+        <v>28362</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>38199</v>
+        <v>37729</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>29620</v>
+        <v>29734</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8810</v>
+        <v>8587</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9508</v>
+        <v>9741</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>26103</v>
+        <v>25502</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>20767</v>
+        <v>20497</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14054</v>
+        <v>13805</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>40642</v>
+        <v>41343</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>69228</v>
+        <v>68725</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>55199</v>
+        <v>54022</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>26599</v>
+        <v>25461</v>
       </c>
     </row>
     <row r="15">
@@ -2387,40 +2387,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>46208</v>
+        <v>46647</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>59091</v>
+        <v>58168</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>48975</v>
+        <v>49490</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>23928</v>
+        <v>23896</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>23069</v>
+        <v>23583</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>46142</v>
+        <v>46371</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>39204</v>
+        <v>38371</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>26254</v>
+        <v>25794</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>64799</v>
+        <v>65083</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>98190</v>
+        <v>97586</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>81938</v>
+        <v>80951</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>46804</v>
+        <v>44874</v>
       </c>
     </row>
     <row r="16">
@@ -2523,40 +2523,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>29916</v>
+        <v>29126</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>38859</v>
+        <v>38672</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>22708</v>
+        <v>22670</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12491</v>
+        <v>12466</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12845</v>
+        <v>13371</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>14714</v>
+        <v>14730</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>15232</v>
+        <v>14624</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>16663</v>
+        <v>16865</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>45975</v>
+        <v>48006</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>58239</v>
+        <v>57188</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>40654</v>
+        <v>42983</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>32632</v>
+        <v>32460</v>
       </c>
     </row>
     <row r="19">
@@ -2567,40 +2567,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>51021</v>
+        <v>50838</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>62571</v>
+        <v>63577</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>42651</v>
+        <v>43247</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>29462</v>
+        <v>31164</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>27957</v>
+        <v>27671</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>32181</v>
+        <v>31670</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>33187</v>
+        <v>33360</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>29861</v>
+        <v>29683</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>72305</v>
+        <v>73733</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>90240</v>
+        <v>89466</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>70191</v>
+        <v>68705</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>54705</v>
+        <v>54796</v>
       </c>
     </row>
     <row r="20">
@@ -2703,40 +2703,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12083</v>
+        <v>11625</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>20612</v>
+        <v>20364</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>20778</v>
+        <v>20563</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>15517</v>
+        <v>15274</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1299</v>
+        <v>1013</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>6384</v>
+        <v>6246</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>7399</v>
+        <v>6710</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>13438</v>
+        <v>13691</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>15004</v>
+        <v>15177</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>29600</v>
+        <v>30906</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>30495</v>
+        <v>30307</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>32427</v>
+        <v>31765</v>
       </c>
     </row>
     <row r="23">
@@ -2747,40 +2747,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>28042</v>
+        <v>27641</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>40834</v>
+        <v>40462</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>40484</v>
+        <v>40978</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>32888</v>
+        <v>32545</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>9046</v>
+        <v>8330</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>18645</v>
+        <v>19060</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>20345</v>
+        <v>21031</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>25594</v>
+        <v>25827</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>33224</v>
+        <v>32713</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>54293</v>
+        <v>53585</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>54474</v>
+        <v>54930</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>53334</v>
+        <v>53570</v>
       </c>
     </row>
     <row r="24">
@@ -2883,40 +2883,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>9657</v>
+        <v>9626</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>11483</v>
+        <v>10910</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>12929</v>
+        <v>13136</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>14784</v>
+        <v>14446</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>726</v>
+        <v>758</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1097</v>
+        <v>1174</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2115</v>
+        <v>2105</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>3156</v>
+        <v>3073</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>11558</v>
+        <v>11512</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>14910</v>
+        <v>14718</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>18465</v>
+        <v>18443</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>19837</v>
+        <v>19606</v>
       </c>
     </row>
     <row r="27">
@@ -2927,40 +2927,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>24746</v>
+        <v>24723</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>27259</v>
+        <v>26853</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>30142</v>
+        <v>29850</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>29471</v>
+        <v>29701</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>6182</v>
+        <v>6571</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>8574</v>
+        <v>8347</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>11557</v>
+        <v>11360</v>
       </c>
       <c r="J27" s="6" t="n">
         <v>10195</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>27572</v>
+        <v>27402</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>34258</v>
+        <v>33160</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>36470</v>
+        <v>37403</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>36071</v>
+        <v>36907</v>
       </c>
     </row>
     <row r="28">
@@ -3063,16 +3063,16 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>805</v>
+        <v>825</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2901</v>
+        <v>3014</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>1707</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1750</v>
+        <v>1635</v>
       </c>
       <c r="G30" s="6" t="inlineStr"/>
       <c r="H30" s="6" t="n">
@@ -3081,16 +3081,16 @@
       <c r="I30" s="6" t="inlineStr"/>
       <c r="J30" s="6" t="inlineStr"/>
       <c r="K30" s="6" t="n">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>3582</v>
+        <v>4076</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1816</v>
+        <v>1721</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1964</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="31">
@@ -3101,34 +3101,34 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>7308</v>
+        <v>7657</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>13435</v>
+        <v>13873</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>10322</v>
+        <v>10803</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>9960</v>
+        <v>9341</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="n">
-        <v>4039</v>
+        <v>4182</v>
       </c>
       <c r="I31" s="6" t="inlineStr"/>
       <c r="J31" s="6" t="inlineStr"/>
       <c r="K31" s="6" t="n">
-        <v>7804</v>
+        <v>7561</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>15034</v>
+        <v>15569</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>10375</v>
+        <v>10687</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>9805</v>
+        <v>9271</v>
       </c>
     </row>
     <row r="32">
@@ -3231,40 +3231,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>124538</v>
+        <v>124726</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>193403</v>
+        <v>193998</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>143915</v>
+        <v>141283</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>83319</v>
+        <v>82660</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>79778</v>
+        <v>77509</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>123209</v>
+        <v>125088</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>102146</v>
+        <v>103128</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>81768</v>
+        <v>82151</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>214068</v>
+        <v>211155</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>331366</v>
+        <v>331613</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>251397</v>
+        <v>255830</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>173290</v>
+        <v>175719</v>
       </c>
     </row>
     <row r="35">
@@ -3275,40 +3275,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>168663</v>
+        <v>168155</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>246367</v>
+        <v>247068</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>188253</v>
+        <v>185753</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>122456</v>
+        <v>121819</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>110082</v>
+        <v>109796</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>162675</v>
+        <v>164512</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>138095</v>
+        <v>139909</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>112371</v>
+        <v>114159</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>268305</v>
+        <v>267258</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>396605</v>
+        <v>397543</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>311132</v>
+        <v>315461</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>226950</v>
+        <v>227045</v>
       </c>
     </row>
     <row r="36">
